--- a/Analytics/I1/TeamFirstCard_i1.xlsx
+++ b/Analytics/I1/TeamFirstCard_i1.xlsx
@@ -85,13 +85,13 @@
     <t>Juventus</t>
   </si>
   <si>
+    <t>Verona</t>
+  </si>
+  <si>
     <t>Torino</t>
   </si>
   <si>
     <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Verona</t>
   </si>
   <si>
     <t>Udinese</t>
@@ -252,7 +252,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -491,7 +491,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>4.0</v>
@@ -612,7 +612,7 @@
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -722,7 +722,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -744,10 +744,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -755,10 +755,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -766,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -777,7 +777,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -788,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -810,7 +810,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -898,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1030,7 +1030,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -1041,7 +1041,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -1140,10 +1140,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -1151,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -1162,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -1173,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -1184,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -1217,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -1261,7 +1261,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -1404,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
         <v>5.0</v>
@@ -1437,7 +1437,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
         <v>4.0</v>
@@ -1448,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
         <v>4.0</v>
@@ -1459,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>
@@ -1470,10 +1470,10 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
@@ -1481,7 +1481,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
         <v>3.0</v>
@@ -1503,7 +1503,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="n">
         <v>2.0</v>
@@ -1624,7 +1624,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -1635,7 +1635,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -1668,7 +1668,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -1866,7 +1866,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -1899,7 +1899,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
         <v>3.0</v>
@@ -1932,10 +1932,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
@@ -1943,7 +1943,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -1954,7 +1954,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -1965,7 +1965,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -2020,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
@@ -2031,10 +2031,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -2075,7 +2075,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -2086,7 +2086,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -2097,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -2108,10 +2108,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -2119,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -2295,7 +2295,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -2317,7 +2317,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -2339,7 +2339,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -2438,10 +2438,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -2449,7 +2449,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -2515,7 +2515,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -2526,10 +2526,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -2537,7 +2537,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>3.0</v>
@@ -2548,7 +2548,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
         <v>3.0</v>
@@ -2559,7 +2559,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C15" t="n">
         <v>3.0</v>
@@ -2570,7 +2570,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
         <v>3.0</v>
@@ -2581,7 +2581,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" t="n">
         <v>3.0</v>
@@ -2592,10 +2592,10 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -2603,7 +2603,7 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
         <v>2.0</v>
@@ -2658,7 +2658,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
         <v>7.0</v>
@@ -2680,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
         <v>7.0</v>
@@ -2812,7 +2812,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="n">
         <v>4.0</v>

--- a/Analytics/I1/TeamFirstCard_i1.xlsx
+++ b/Analytics/I1/TeamFirstCard_i1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="39">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -46,6 +46,21 @@
     <t>5</t>
   </si>
   <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -64,6 +79,33 @@
     <t>11</t>
   </si>
   <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -76,79 +118,25 @@
     <t>15</t>
   </si>
   <si>
-    <t>Monza</t>
+    <t>16</t>
   </si>
   <si>
     <t>Empoli</t>
   </si>
   <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Verona</t>
+    <t>Lecce</t>
   </si>
   <si>
     <t>Torino</t>
   </si>
   <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
+    <t>Como</t>
   </si>
   <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
     <t>Milan</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Lazio</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -216,10 +204,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,10 +215,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,10 +226,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,10 +237,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,119 +248,9 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -392,7 +270,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -403,10 +281,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -414,10 +292,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -428,7 +306,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -436,10 +314,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -447,174 +325,108 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -634,7 +446,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -645,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -656,10 +468,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -667,10 +479,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -678,10 +490,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -689,152 +501,64 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -854,7 +578,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -865,10 +589,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -876,10 +600,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -887,10 +611,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +622,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -909,141 +633,31 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1074,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1085,10 +699,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1096,10 +710,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1107,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1118,163 +732,75 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1305,10 +831,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1316,10 +842,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1327,10 +853,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1338,10 +864,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1349,175 +875,131 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1547,10 +1029,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1558,10 +1040,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1569,10 +1051,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -1580,10 +1062,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1591,175 +1073,98 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1789,10 +1194,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1800,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1811,10 +1216,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1822,10 +1227,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1833,152 +1238,86 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2009,10 +1348,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -2020,10 +1359,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -2031,10 +1370,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -2042,10 +1381,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -2053,130 +1392,64 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2196,7 +1469,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2207,10 +1480,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -2218,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -2229,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -2240,10 +1513,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -2251,141 +1524,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
       <c r="C7" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -2405,7 +1557,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2419,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -2427,10 +1579,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -2438,10 +1590,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -2449,10 +1601,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2460,175 +1612,109 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +1733,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2658,10 +1744,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -2669,10 +1755,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -2680,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -2691,10 +1777,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -2702,175 +1788,98 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/I1/TeamFirstCard_i1.xlsx
+++ b/Analytics/I1/TeamFirstCard_i1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="41">
   <si>
     <t>HomeTeam</t>
   </si>
@@ -46,10 +46,19 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
     <t>Fiorentina</t>
   </si>
   <si>
-    <t>Bologna</t>
+    <t>Roma</t>
   </si>
   <si>
     <t>Genoa</t>
@@ -61,10 +70,7 @@
     <t>Juventus</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>Verona</t>
   </si>
   <si>
     <t>8</t>
@@ -79,25 +85,43 @@
     <t>11</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Lazio</t>
   </si>
   <si>
-    <t>Verona</t>
-  </si>
-  <si>
     <t>Udinese</t>
   </si>
   <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
     <t>Parma</t>
   </si>
   <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Monza</t>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Como</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -106,37 +130,19 @@
     <t>Inter</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
     <t>Empoli</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Milan</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +210,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -215,10 +221,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +232,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -237,7 +243,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -248,9 +254,31 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -270,7 +298,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -281,10 +309,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -292,7 +320,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -303,10 +331,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -314,10 +342,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -325,40 +353,40 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -366,7 +394,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
@@ -377,10 +405,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -388,10 +416,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -399,10 +427,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -410,10 +438,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -421,12 +449,34 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -446,7 +496,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -457,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -468,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -479,7 +529,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -490,10 +540,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -501,29 +551,29 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -531,10 +581,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -542,10 +592,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -553,12 +603,67 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="n">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -578,7 +683,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -589,10 +694,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -611,10 +716,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -622,10 +727,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -633,18 +738,18 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -652,12 +757,67 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -688,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -699,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -710,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -721,7 +881,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -732,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -740,67 +900,111 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -831,10 +1035,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -842,10 +1046,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -853,10 +1057,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -864,10 +1068,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -875,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -883,10 +1087,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -894,10 +1098,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -905,10 +1109,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -916,54 +1120,54 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -971,10 +1175,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -982,10 +1186,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -993,12 +1197,34 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1029,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -1040,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -1051,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -1062,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
@@ -1073,7 +1299,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1081,10 +1307,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -1092,54 +1318,54 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1147,7 +1373,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1158,12 +1384,23 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1194,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -1205,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1216,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -1227,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -1238,18 +1475,18 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1257,10 +1494,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1268,10 +1505,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1279,10 +1516,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1290,10 +1527,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1301,10 +1538,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1312,12 +1549,34 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1348,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>3.0</v>
@@ -1359,10 +1618,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1370,10 +1629,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1381,10 +1640,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1392,40 +1651,40 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1433,10 +1692,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1444,12 +1703,56 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="n">
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1469,7 +1772,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1480,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -1491,7 +1794,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -1502,10 +1805,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1513,10 +1816,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1524,7 +1827,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1532,12 +1835,34 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1557,7 +1882,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1568,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>4.0</v>
@@ -1579,10 +1904,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -1590,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -1604,7 +1929,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1612,40 +1937,40 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1653,21 +1978,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1675,10 +2000,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1686,10 +2011,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1697,10 +2022,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1708,12 +2033,34 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1733,7 +2080,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1744,10 +2091,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -1755,7 +2102,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
         <v>3.0</v>
@@ -1766,7 +2113,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
         <v>3.0</v>
@@ -1777,10 +2124,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1788,7 +2135,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -1796,10 +2143,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -1807,54 +2154,54 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -1862,10 +2209,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1873,12 +2220,56 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
